--- a/results.xlsx
+++ b/results.xlsx
@@ -5,134 +5,131 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="32">
   <si>
-    <t xml:space="preserve">div</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conv_wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conv_utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conv_mrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conv_constrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conv_seconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conv_trades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_mrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_constrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_seconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_trades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_fixed05_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_fixed05_random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_fixed05_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_fixed10_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_fixed10_random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_fixed10_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_fixed20_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_fixed20_random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_fixed20_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_last_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_last_random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_last_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_mean_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_mean_random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_mean_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stable</t>
+    <t>div</t>
+  </si>
+  <si>
+    <t>conv</t>
+  </si>
+  <si>
+    <t>conv_wealth</t>
+  </si>
+  <si>
+    <t>conv_utility</t>
+  </si>
+  <si>
+    <t>conv_mrs</t>
+  </si>
+  <si>
+    <t>conv_constrain</t>
+  </si>
+  <si>
+    <t>conv_seconds</t>
+  </si>
+  <si>
+    <t>conv_trades</t>
+  </si>
+  <si>
+    <t>end_wealth</t>
+  </si>
+  <si>
+    <t>end_utility</t>
+  </si>
+  <si>
+    <t>end_mrs</t>
+  </si>
+  <si>
+    <t>end_constrain</t>
+  </si>
+  <si>
+    <t>end_seconds</t>
+  </si>
+  <si>
+    <t>end_trades</t>
+  </si>
+  <si>
+    <t>cons_fixed05_mean</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>cons_fixed05_random</t>
+  </si>
+  <si>
+    <t>cons_fixed05_total</t>
+  </si>
+  <si>
+    <t>cons_fixed10_mean</t>
+  </si>
+  <si>
+    <t>cons_fixed10_random</t>
+  </si>
+  <si>
+    <t>cons_fixed10_total</t>
+  </si>
+  <si>
+    <t>cons_fixed20_mean</t>
+  </si>
+  <si>
+    <t>cons_fixed20_random</t>
+  </si>
+  <si>
+    <t>cons_fixed20_total</t>
+  </si>
+  <si>
+    <t>cons_last_mean</t>
+  </si>
+  <si>
+    <t>cons_last_random</t>
+  </si>
+  <si>
+    <t>cons_last_total</t>
+  </si>
+  <si>
+    <t>cons_mean_mean</t>
+  </si>
+  <si>
+    <t>cons_mean_random</t>
+  </si>
+  <si>
+    <t>cons_mean_total</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>stable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -192,7 +189,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,6 +214,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -234,20 +235,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.15816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.77551020408163"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.83163265306122"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5714285714286"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.734693877551"/>
@@ -1103,6 +1104,25 @@
         <v>78726.0701</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <f aca="false">AVERAGE(B2:B16)</f>
+        <v>0.771333333333333</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <f aca="false">AVERAGE(C2:C16)</f>
+        <v>0.144666666666667</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="6" t="n">
+        <f aca="false">AVERAGE(C14:C16)</f>
+        <v>0.633333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -124,7 +124,7 @@
     <numFmt numFmtId="167" formatCode="#,##0"/>
     <numFmt numFmtId="168" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -145,6 +145,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,6 +218,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,7 +273,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -869,97 +900,97 @@
         <v>6166.3353</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="7" t="n">
         <v>0.48</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="7" t="n">
         <v>0.52</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="8" t="n">
         <v>0.0445914672696</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="8" t="n">
         <v>0.324647047832</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="8" t="n">
         <v>0.00813426339075</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="8" t="n">
         <v>0.273383778739</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="9" t="n">
         <v>765.729451285</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="9" t="n">
         <v>26224.1128846</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="J14" s="10" t="n">
         <v>0.0249158984376</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="10" t="n">
         <v>0.216048405279</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="10" t="n">
         <v>0.0521180064333</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="10" t="n">
         <v>0.131250638626</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="N14" s="11" t="n">
         <v>1491.9940176</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="O14" s="11" t="n">
         <v>61989.5156</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="7" t="n">
         <v>0.96</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="8" t="n">
         <v>0.0365767861424</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="8" t="n">
         <v>0.324765863</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="8" t="n">
         <v>0.00822373512704</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="8" t="n">
         <v>0.178404564065</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="9" t="n">
         <v>1944.78164212</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="9" t="n">
         <v>63521.0826042</v>
       </c>
-      <c r="J15" s="4" t="n">
+      <c r="J15" s="10" t="n">
         <v>0.0355955320209</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="10" t="n">
         <v>0.325714966191</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="10" t="n">
         <v>0.0090068849033</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="10" t="n">
         <v>0.166750689616</v>
       </c>
-      <c r="N15" s="5" t="n">
+      <c r="N15" s="11" t="n">
         <v>2288.54203075</v>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="O15" s="11" t="n">
         <v>77838.829</v>
       </c>
     </row>
@@ -1105,20 +1136,20 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="12" t="n">
         <f aca="false">AVERAGE(B2:B16)</f>
         <v>0.771333333333333</v>
       </c>
-      <c r="B21" s="6" t="n">
+      <c r="B21" s="12" t="n">
         <f aca="false">AVERAGE(C2:C16)</f>
         <v>0.144666666666667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
+      <c r="A22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="6" t="n">
+      <c r="B23" s="12" t="n">
         <f aca="false">AVERAGE(C14:C16)</f>
         <v>0.633333333333333</v>
       </c>
